--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1523536.425086917</v>
+        <v>1627716.059537988</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>349.9077264684823</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -674,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>243.5879073424591</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>100.0274859592281</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>157.2194637059537</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>132.082120991749</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>72.26185188621125</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1060,7 +1062,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983812</v>
@@ -1102,10 +1104,10 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>199.8862370761168</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>69.25160695998036</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>217.6941418399128</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>92.47445699814172</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>96.40939236858664</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>117.4128986855868</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>172.026033500079</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000745</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890411</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1853,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>41.55695577161193</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>178.8076944857614</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2084,13 +2086,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>99.9742741983392</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2327,10 +2329,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>114.2821160880066</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>111.321323070213</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2564,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2728,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>73.56194264363172</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2758,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>180.330238561827</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2953,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>130.5513683573777</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,10 +3006,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3038,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3080,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3190,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>68.17501931583779</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="36">
@@ -3427,16 +3429,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3472,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>137.9792024346624</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3664,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>20.88994825141581</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>245.8640357413592</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3901,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>23.10998325717174</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>7.069540131683943</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4031,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4144,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856931</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,10 +4191,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>140.575894358866</v>
       </c>
       <c r="V46" t="n">
-        <v>45.3663172442181</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1935.366530930991</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1566.404013990579</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1566.404013990579</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1180.615761392335</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>769.6298566027274</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>354.5574064477238</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4355,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176917</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906803</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="X2" t="n">
-        <v>2325.505862906803</v>
+        <v>2698.609586621927</v>
       </c>
       <c r="Y2" t="n">
-        <v>1935.366530930991</v>
+        <v>2698.609586621927</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>945.3964936596652</v>
+        <v>2174.771584252436</v>
       </c>
       <c r="C4" t="n">
-        <v>776.4603107317583</v>
+        <v>2174.771584252436</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>2024.6549448401</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>1876.741851257707</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>1729.851903759797</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>3134.737499761417</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>2912.970884330944</v>
       </c>
       <c r="U4" t="n">
-        <v>1513.842048484845</v>
+        <v>2912.970884330944</v>
       </c>
       <c r="V4" t="n">
-        <v>1513.842048484845</v>
+        <v>2912.970884330944</v>
       </c>
       <c r="W4" t="n">
-        <v>1513.842048484845</v>
+        <v>2623.553714293983</v>
       </c>
       <c r="X4" t="n">
-        <v>1285.852497586828</v>
+        <v>2395.564163395966</v>
       </c>
       <c r="Y4" t="n">
-        <v>1127.044958489905</v>
+        <v>2174.771584252436</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1548.419770374778</v>
+        <v>2049.196691315585</v>
       </c>
       <c r="C5" t="n">
-        <v>1548.419770374778</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1190.154071768027</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4580,37 +4582,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180639</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.836054204827</v>
+        <v>2435.796531379707</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4656,16 +4658,16 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>945.3964936596652</v>
+        <v>943.7005868594143</v>
       </c>
       <c r="C7" t="n">
-        <v>776.4603107317583</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
@@ -4750,25 +4752,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1635.558800870145</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672847</v>
+        <v>1635.558800870145</v>
       </c>
       <c r="V7" t="n">
-        <v>1645.778206672847</v>
+        <v>1635.558800870145</v>
       </c>
       <c r="W7" t="n">
-        <v>1575.827088531452</v>
+        <v>1346.141630833184</v>
       </c>
       <c r="X7" t="n">
-        <v>1347.837537633435</v>
+        <v>1346.141630833184</v>
       </c>
       <c r="Y7" t="n">
-        <v>1127.044958489905</v>
+        <v>1125.349051689654</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2196.097994299122</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
         <v>1976.204921733553</v>
@@ -4802,10 +4804,10 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4820,34 +4822,34 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339055</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="X8" t="n">
-        <v>2972.837166339055</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y8" t="n">
-        <v>2582.697834363244</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>725.9304417640992</v>
+        <v>385.564938772426</v>
       </c>
       <c r="C10" t="n">
-        <v>725.9304417640992</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D10" t="n">
-        <v>575.8138023517635</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218339</v>
@@ -4963,13 +4965,13 @@
         <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1305.412703681174</v>
       </c>
       <c r="V10" t="n">
-        <v>1645.778206672847</v>
+        <v>1305.412703681174</v>
       </c>
       <c r="W10" t="n">
-        <v>1356.361036635886</v>
+        <v>1015.995533644213</v>
       </c>
       <c r="X10" t="n">
-        <v>1128.371485737869</v>
+        <v>788.0059827461959</v>
       </c>
       <c r="Y10" t="n">
-        <v>907.5789065943389</v>
+        <v>567.2134036026657</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5124,19 +5126,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996072</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,61 +5175,61 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
         <v>2273.199413378161</v>
@@ -5267,31 +5269,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5303,25 +5305,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,22 +5351,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>904.461687384549</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M15" t="n">
-        <v>1501.840175011101</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N15" t="n">
         <v>2129.438138565707</v>
@@ -5410,70 +5412,70 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378165</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172278</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135318</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
         <v>1501.108204237296</v>
@@ -5495,10 +5497,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,10 +5509,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111712</v>
@@ -5519,22 +5521,22 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517212</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2252.221377756499</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>552.8412329032296</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C19" t="n">
-        <v>552.8412329032296</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2404.986360578632</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2404.986360578632</v>
       </c>
       <c r="T19" t="n">
-        <v>2016.448712673667</v>
+        <v>2185.384895601573</v>
       </c>
       <c r="U19" t="n">
-        <v>1727.373486017864</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V19" t="n">
-        <v>1472.688997811978</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W19" t="n">
-        <v>1183.271827775017</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X19" t="n">
-        <v>955.2822768769995</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y19" t="n">
-        <v>734.4896977334694</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5744,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5771,31 +5773,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5835,22 +5837,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>904.4616873845483</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>2438.670847218162</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>2337.686731866304</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>2337.686731866304</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>2337.686731866304</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,31 +6010,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6075,19 +6077,19 @@
         <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>738.7889117913853</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>695.5020655703109</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C25" t="n">
-        <v>526.5658826424041</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D25" t="n">
-        <v>376.4492432300683</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>376.4492432300683</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>376.4492432300683</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>209.2531439449482</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6172,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="26">
@@ -6206,10 +6208,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6221,7 +6223,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6230,13 +6232,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6306,22 +6308,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>1031.260321675049</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>862.3241387471426</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>712.2074993348068</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>564.2944057524137</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>417.4044582545033</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>250.2083589693833</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2045.209862480144</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1501.108204237296</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>1212.908786505289</v>
       </c>
     </row>
     <row r="29">
@@ -6443,37 +6445,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6543,25 +6545,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M30" t="n">
-        <v>1174.766565373399</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3012.408157764291</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>2843.471974836385</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>2693.355335424049</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>2693.355335424049</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>2693.355335424049</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>3932.255922673039</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>3642.838752636078</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>3414.849201738061</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>3194.056622594531</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6692,19 +6694,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6716,34 +6718,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.537229081859</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153952</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741616</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4690.833152398593</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>4690.833152398593</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>4517.069482196493</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>4262.384993990607</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>3972.967823953646</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>3744.978273055629</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>3524.185693912098</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6926,16 +6928,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6944,13 +6946,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7017,25 +7019,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>949.9304447718133</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578602</v>
@@ -7120,25 +7122,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2307.590151828076</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>2018.514925172274</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7165,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7251,28 +7253,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>2798.451385364349</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>2629.515202436442</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="E40" t="n">
-        <v>197.0043242297712</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="F40" t="n">
-        <v>197.0043242297712</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="G40" t="n">
-        <v>197.0043242297712</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>3972.983638478983</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>3718.299150273097</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>3428.881980236136</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>3200.892429338119</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>2980.099850194589</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7436,25 +7438,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913445</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>2715.159942084666</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>2854.440648734749</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>3482.038612289356</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>4033.948342528643</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>4457.571492023711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>1023.721406539404</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>854.7852236114967</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>704.6685841991609</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>556.7554906167678</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797186</v>
+        <v>409.8655431188574</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>242.6694438337374</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>100.9576126759355</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>1205.369871369643</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,37 +7663,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7719,28 +7721,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M45" t="n">
-        <v>1174.766565373399</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
         <v>2319.799627685893</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>789.7592298206082</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>620.8230468927013</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>470.7064074803656</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>322.7933138979724</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000621</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000621</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000621</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7837,19 +7839,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V46" t="n">
-        <v>1709.606994729356</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W46" t="n">
-        <v>1420.189824692395</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>1192.200273794378</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>971.4076946508479</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -23470,7 +23472,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>45.37941682720927</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891697</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23780,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>24.81829093850975</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>38.59775584152683</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>46.45968844822997</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>26.01259675821728</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>69.70496293143164</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>66.73277020259216</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>105.8542358274172</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>34.97276993489112</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24926,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -25078,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>72.1196935303861</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25123,13 +25125,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25360,16 +25362,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>79.42624789262584</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25552,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25566,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>119.4047645948081</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>40.32043864788491</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>74.1962961868816</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26032,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>145.6085800303781</v>
       </c>
       <c r="V46" t="n">
-        <v>206.7713260796099</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>900060.1389592531</v>
+        <v>900060.1389592532</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>900060.1389592532</v>
+        <v>900060.1389592531</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>900060.1389592531</v>
+        <v>900060.1389592532</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>900060.1389592531</v>
+        <v>900060.1389592532</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>900060.138959253</v>
+        <v>900060.1389592532</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117843</v>
+      </c>
+      <c r="C2" t="n">
+        <v>533677.1504117841</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117842</v>
       </c>
-      <c r="C2" t="n">
-        <v>533677.1504117844</v>
-      </c>
-      <c r="D2" t="n">
-        <v>533677.1504117843</v>
-      </c>
       <c r="E2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="F2" t="n">
         <v>524645.2897985037</v>
@@ -26329,7 +26331,7 @@
         <v>524645.289798504</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="I2" t="n">
         <v>524645.289798504</v>
@@ -26350,7 +26352,7 @@
         <v>524645.2897985041</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985042</v>
       </c>
       <c r="P2" t="n">
         <v>524645.2897985039</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551204</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818173</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.8989181818</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818177</v>
+        <v>92183.89891818182</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26433,10 +26435,10 @@
         <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468305</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683043</v>
+        <v>12996.8641468305</v>
       </c>
       <c r="J4" t="n">
         <v>12996.86414683044</v>
@@ -26522,22 +26524,22 @@
         <v>-995185.4347953834</v>
       </c>
       <c r="C6" t="n">
-        <v>333559.3109322096</v>
+        <v>333559.3109322092</v>
       </c>
       <c r="D6" t="n">
-        <v>333559.3109322092</v>
+        <v>333559.3109322091</v>
       </c>
       <c r="E6" t="n">
-        <v>85113.43402041115</v>
+        <v>85113.43402041061</v>
       </c>
       <c r="F6" t="n">
-        <v>410525.8958277664</v>
+        <v>410525.8958277662</v>
       </c>
       <c r="G6" t="n">
-        <v>410525.8958277664</v>
+        <v>410525.8958277666</v>
       </c>
       <c r="H6" t="n">
-        <v>410525.8958277663</v>
+        <v>410525.8958277665</v>
       </c>
       <c r="I6" t="n">
         <v>410525.8958277664</v>
@@ -26552,7 +26554,7 @@
         <v>410525.8958277663</v>
       </c>
       <c r="M6" t="n">
-        <v>325470.8678922545</v>
+        <v>325470.8678922544</v>
       </c>
       <c r="N6" t="n">
         <v>410525.8958277665</v>
@@ -26790,13 +26792,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973565</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>32.82611519499824</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>51.0198570448614</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>89.74153937221381</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>61.36518964614109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>250.6517206717316</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>293.0110398847963</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,10 +27824,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>19.6627122000524</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27834,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>217.2713913766106</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>147.5787499310948</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27913,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>277.2566436803273</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>50.02457027798253</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,10 +28064,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>168.7989395200261</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28810,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29047,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,34 +31846,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>250.1723312270667</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>468.9317632523004</v>
+        <v>468.9317632522997</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32318,25 +32320,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>437.8531046913764</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32555,13 +32557,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>468.9317632522997</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>558.3177848342789</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
@@ -32573,7 +32575,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32795,10 +32797,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>318.3985571819322</v>
       </c>
       <c r="N24" t="n">
-        <v>742.935485982477</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,10 +32809,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,10 +33028,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33263,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>302.5540177178169</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33281,10 +33283,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,28 +33502,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,13 +33739,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>514.8598010172138</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33758,7 +33760,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33907,7 +33909,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -33971,7 +33973,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
@@ -33980,10 +33982,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>754.0002396832328</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33995,7 +33997,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34153,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34214,16 +34216,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>282.8216163968498</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34234,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,7 +34368,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34384,7 +34386,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236501</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34448,22 +34450,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>302.5540177178169</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35494,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>330.3773834724262</v>
+        <v>330.3773834724255</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>303.8786972770462</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36203,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>330.3773834724255</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>426.9760727509455</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36221,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>176.2645232599139</v>
       </c>
       <c r="N24" t="n">
-        <v>611.5937738991437</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,10 +36457,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,10 +36676,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,16 +36913,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>171.2123056344836</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36929,10 +36931,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37385,13 +37387,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>376.3054212373396</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37406,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37555,7 +37557,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37628,10 +37630,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>622.6585275998996</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37643,7 +37645,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>140.6875824748315</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37882,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38032,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683806</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38096,22 +38098,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>171.2123056344836</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1627716.059537988</v>
+        <v>1623703.449523996</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>349.9077264684823</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>345.8079317615178</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>80.00124118081874</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>100.0274859592281</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>72.26185188621125</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>78.961229153611</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1062,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>77.31354443380458</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>199.8862370761168</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>374.6484631462127</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>92.47445699814172</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1302,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>117.4128986855868</v>
+        <v>52.0785263574582</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>94.64226186542935</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>34.69211367164905</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>172.026033500079</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428257</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.55695577161193</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>1.799772605716168</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>111.321323070213</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>214.4033048062054</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2724,13 +2724,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>73.56194264363172</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>102.3739644559489</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>68.17501931583779</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>113.7379149844577</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>93.4044447618827</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>245.8640357413592</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>135.0949745400652</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>7.069540131683943</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>126.926382450742</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>140.575894358866</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="C2" t="n">
         <v>1976.204921733553</v>
@@ -4327,13 +4327,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4348,34 +4348,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883007</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V2" t="n">
-        <v>3072.075344883007</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W2" t="n">
-        <v>3072.075344883007</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X2" t="n">
-        <v>2698.609586621927</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="Y2" t="n">
-        <v>2698.609586621927</v>
+        <v>2325.505862906803</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986304</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2174.771584252436</v>
+        <v>1075.097337786232</v>
       </c>
       <c r="C4" t="n">
-        <v>2174.771584252436</v>
+        <v>906.1611548583255</v>
       </c>
       <c r="D4" t="n">
-        <v>2024.6549448401</v>
+        <v>756.0445154459898</v>
       </c>
       <c r="E4" t="n">
-        <v>1876.741851257707</v>
+        <v>608.1314218635966</v>
       </c>
       <c r="F4" t="n">
-        <v>1729.851903759797</v>
+        <v>461.2414743656863</v>
       </c>
       <c r="G4" t="n">
-        <v>1562.149067134516</v>
+        <v>293.5386377404052</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134516</v>
+        <v>147.321450958263</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>3134.737499761417</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>2912.970884330944</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U4" t="n">
-        <v>2912.970884330944</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V4" t="n">
-        <v>2912.970884330944</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="W4" t="n">
-        <v>2623.553714293983</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="X4" t="n">
-        <v>2395.564163395966</v>
+        <v>1477.538381760002</v>
       </c>
       <c r="Y4" t="n">
-        <v>2174.771584252436</v>
+        <v>1256.745802616472</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2049.196691315585</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993392</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2788.565186649821</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2435.796531379707</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2435.796531379707</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2435.796531379707</v>
+        <v>1618.75081059268</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>943.7005868594143</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C7" t="n">
-        <v>774.7644039315074</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D7" t="n">
-        <v>624.6477645191717</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1635.558800870145</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1635.558800870145</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V7" t="n">
-        <v>1635.558800870145</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W7" t="n">
-        <v>1346.141630833184</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X7" t="n">
-        <v>1346.141630833184</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y7" t="n">
-        <v>1125.349051689654</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1535.524858594926</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1177.259159988176</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>791.4709073899314</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>784.525406640728</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136264</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136264</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136264</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1904.487375535338</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>385.564938772426</v>
+        <v>700.1577228956174</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445191</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218339</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218339</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1305.412703681174</v>
+        <v>1874.689976010252</v>
       </c>
       <c r="V10" t="n">
-        <v>1305.412703681174</v>
+        <v>1620.005487804365</v>
       </c>
       <c r="W10" t="n">
-        <v>1015.995533644213</v>
+        <v>1330.588317767405</v>
       </c>
       <c r="X10" t="n">
-        <v>788.0059827461959</v>
+        <v>1102.598766869387</v>
       </c>
       <c r="Y10" t="n">
-        <v>567.2134036026657</v>
+        <v>881.8061877258572</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,7 +5029,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,19 +5038,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5068,13 +5068,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5123,22 +5123,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1140.291933891999</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L15" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,7 +5454,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
@@ -5463,25 +5463,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T16" t="n">
-        <v>2273.199413378161</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1789.82229605222</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1500.405126015259</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1272.415575117242</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1051.622995973712</v>
       </c>
     </row>
     <row r="17">
@@ -5509,19 +5509,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5533,10 +5533,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>721.7774158311364</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>552.8412329032295</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2404.986360578632</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2404.986360578632</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2185.384895601573</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1124.218459804906</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>903.4258806613761</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,31 +5773,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5904,10 +5904,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5983,58 +5983,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832228</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>634.9279362553159</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
         <v>484.8112968429802</v>
@@ -6144,55 +6144,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2267.47159895366</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2267.47159895366</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.396372297858</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1723.711884091971</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.29471405501</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134625</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6208,10 +6208,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6223,10 +6223,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1031.260321675049</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C28" t="n">
-        <v>862.3241387471426</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D28" t="n">
-        <v>712.2074993348068</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E28" t="n">
-        <v>564.2944057524137</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>417.4044582545033</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>250.2083589693833</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.700204330166</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.701365648819</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X28" t="n">
-        <v>1433.701365648819</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y28" t="n">
-        <v>1212.908786505289</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="29">
@@ -6454,22 +6454,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6481,10 +6481,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6694,19 +6694,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6718,34 +6718,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597619</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>244.7670222746419</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1862.574297697925</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1607.889809492038</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1318.472639455077</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>1090.48308855706</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>869.6905094135296</v>
       </c>
     </row>
     <row r="35">
@@ -6919,37 +6919,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597619</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597619</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F37" t="n">
-        <v>411.9631215597619</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>199.7675539570408</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7165,7 +7165,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7177,7 +7177,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2798.451385364349</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>2629.515202436442</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>2479.398563024106</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>2479.398563024106</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>2479.398563024106</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>3972.983638478983</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3718.299150273097</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3428.881980236136</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3200.892429338119</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>2980.099850194589</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1023.721406539404</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C43" t="n">
-        <v>854.7852236114967</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D43" t="n">
-        <v>704.6685841991609</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E43" t="n">
-        <v>556.7554906167678</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F43" t="n">
-        <v>409.8655431188574</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>242.6694438337374</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>100.9576126759355</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1205.369871369643</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7648,10 +7648,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>559.0424953278208</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>408.925855915485</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>191.8807364711616</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>145.1398665102882</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>45.37941682720927</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194129</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>24.81829093850975</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4949402405077</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>69.70496293143164</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>72.11969353038563</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>66.73277020259216</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>115.0314858713394</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>72.1196935303861</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>172.4465594047865</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>35.40333084624568</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>40.32043864788491</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>10.32607348286601</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>74.1962961868816</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>38.5977558415268</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>145.6085800303781</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>900060.1389592532</v>
+        <v>900060.1389592531</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>900060.1389592532</v>
+        <v>900060.1389592531</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>900060.1389592531</v>
+        <v>900060.1389592532</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>900060.1389592532</v>
+        <v>900060.1389592531</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>900060.1389592532</v>
+        <v>900060.1389592531</v>
       </c>
     </row>
     <row r="15">
@@ -26316,43 +26316,43 @@
         <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="F2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="G2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="F2" t="n">
-        <v>524645.2897985037</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="H2" t="n">
-        <v>524645.2897985041</v>
-      </c>
       <c r="I2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="J2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="L2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="M2" t="n">
         <v>524645.2897985041</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="O2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="M2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="N2" t="n">
-        <v>524645.2897985041</v>
-      </c>
-      <c r="O2" t="n">
-        <v>524645.2897985042</v>
       </c>
       <c r="P2" t="n">
         <v>524645.2897985039</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551204</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818173</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.8989181818</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818182</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26435,10 +26435,10 @@
         <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.8641468305</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.8641468305</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
         <v>12996.86414683044</v>
@@ -26481,7 +26481,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-995185.4347953834</v>
+        <v>-995185.4347953835</v>
       </c>
       <c r="C6" t="n">
-        <v>333559.3109322092</v>
+        <v>333559.3109322095</v>
       </c>
       <c r="D6" t="n">
-        <v>333559.3109322091</v>
+        <v>333559.3109322094</v>
       </c>
       <c r="E6" t="n">
-        <v>85113.43402041061</v>
+        <v>84766.05476605392</v>
       </c>
       <c r="F6" t="n">
-        <v>410525.8958277662</v>
+        <v>410178.5165734095</v>
       </c>
       <c r="G6" t="n">
-        <v>410525.8958277666</v>
+        <v>410178.5165734094</v>
       </c>
       <c r="H6" t="n">
-        <v>410525.8958277665</v>
+        <v>410178.5165734098</v>
       </c>
       <c r="I6" t="n">
-        <v>410525.8958277664</v>
+        <v>410178.5165734092</v>
       </c>
       <c r="J6" t="n">
-        <v>192994.6934304888</v>
+        <v>192647.314176132</v>
       </c>
       <c r="K6" t="n">
-        <v>410525.8958277665</v>
+        <v>410178.5165734094</v>
       </c>
       <c r="L6" t="n">
-        <v>410525.8958277663</v>
+        <v>410178.5165734094</v>
       </c>
       <c r="M6" t="n">
-        <v>325470.8678922544</v>
+        <v>325123.4886378977</v>
       </c>
       <c r="N6" t="n">
-        <v>410525.8958277665</v>
+        <v>410178.5165734094</v>
       </c>
       <c r="O6" t="n">
-        <v>410525.8958277666</v>
+        <v>410178.5165734093</v>
       </c>
       <c r="P6" t="n">
-        <v>410525.8958277663</v>
+        <v>410178.5165734093</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973565</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32.82611519499824</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>19.4649600094898</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>16.35117922901935</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>89.74153937221381</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>293.0110398847963</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>307.2767095024426</v>
       </c>
     </row>
     <row r="6">
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>69.12041821276459</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>19.6627122000524</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,10 +27864,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>36.27326250724076</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>277.2566436803273</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28022,16 +28022,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>168.7989395200261</v>
+        <v>234.1333118481547</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28812,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29049,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31843,13 +31843,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
@@ -31861,7 +31861,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,28 +32074,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>468.9317632522997</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,7 +32104,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32563,19 +32563,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>558.3177848342789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>318.3985571819322</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>360.9226811202611</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33733,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33897,7 +33897,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33909,7 +33909,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -33970,34 +33970,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34222,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34368,7 +34368,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34386,7 +34386,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>302.474889585677</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
@@ -35509,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>330.3773834724255</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36211,19 +36211,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>426.9760727509455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>176.2645232599139</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37557,7 +37557,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37870,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38034,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>302.474889585677</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_20_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1623703.449523996</v>
+        <v>1625463.979826781</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>275.1428043778311</v>
       </c>
       <c r="C2" t="n">
-        <v>345.8079317615178</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292592</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414546</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>80.00124118081874</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>114.2656173771025</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>324.482353263934</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>78.961229153611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>77.31354443380458</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>183.0172251110635</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>200.6329083083253</v>
       </c>
       <c r="G8" t="n">
-        <v>374.6484631462127</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>52.0785263574582</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347168</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>59.31005804030097</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,13 +1584,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>94.64226186542935</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.69211367164905</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1779,10 +1779,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>55.52079624060473</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428257</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,10 +2535,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>214.4033048062054</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2611,10 +2611,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2724,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>102.3739644559489</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>192.8170508184371</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X31" t="n">
-        <v>87.21471514852939</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3198,7 +3198,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>72.26558381699924</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>113.7379149844577</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.0286213278503</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>135.0949745400652</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G46" t="n">
-        <v>126.926382450742</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2325.505862906803</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4330,22 +4330,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
@@ -4354,10 +4354,10 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
         <v>3009.337405520489</v>
@@ -4369,13 +4369,13 @@
         <v>2678.274518176918</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906803</v>
+        <v>2325.505862906804</v>
       </c>
       <c r="X2" t="n">
-        <v>2325.505862906803</v>
+        <v>2325.505862906804</v>
       </c>
       <c r="Y2" t="n">
-        <v>2325.505862906803</v>
+        <v>2325.505862906804</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
         <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>936.5735814686086</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>846.0716871064762</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>827.0643955080141</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986304</v>
+        <v>920.7416649986314</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>2446.503393068415</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2857.46467248647</v>
       </c>
       <c r="P3" t="n">
         <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
         <v>3325.461468201687</v>
@@ -4439,7 +4439,7 @@
         <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
         <v>2775.312734507438</v>
@@ -4448,7 +4448,7 @@
         <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
         <v>2078.071769341961</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1075.097337786232</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>906.1611548583255</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>756.0445154459898</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>608.1314218635966</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>461.2414743656863</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>293.5386377404052</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>147.321450958263</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218343</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658019</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="U4" t="n">
-        <v>1705.527932658019</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="V4" t="n">
-        <v>1705.527932658019</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="W4" t="n">
-        <v>1705.527932658019</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>1477.538381760002</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>1256.745802616472</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1232.150970528558</v>
+        <v>1517.887535471215</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>1148.925018530804</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1148.925018530804</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1148.925018530804</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4564,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>1618.75081059268</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="6">
@@ -4637,31 +4637,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>463.6594280995014</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C7" t="n">
-        <v>294.7232451715945</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D7" t="n">
-        <v>144.6066057592588</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4755,22 +4755,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1742.428664137924</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.507193008249</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.090022971289</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X7" t="n">
-        <v>866.1004720732712</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y7" t="n">
-        <v>645.3078929297411</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1904.487375535338</v>
+        <v>1767.878520285688</v>
       </c>
       <c r="C8" t="n">
-        <v>1535.524858594926</v>
+        <v>1767.878520285688</v>
       </c>
       <c r="D8" t="n">
-        <v>1177.259159988176</v>
+        <v>1409.612821678938</v>
       </c>
       <c r="E8" t="n">
-        <v>791.4709073899314</v>
+        <v>1023.824569080694</v>
       </c>
       <c r="F8" t="n">
-        <v>784.525406640728</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796418</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535338</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y8" t="n">
-        <v>1904.487375535338</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>700.1577228956174</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>531.2215399677106</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>381.1049005553748</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
         <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1874.689976010252</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V10" t="n">
-        <v>1620.005487804365</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1330.588317767405</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1102.598766869387</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>881.8061877258572</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5123,22 +5123,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>869.9745311434716</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>701.0383482155647</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282754</v>
+        <v>550.921708803229</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458823</v>
+        <v>403.0086152208358</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340305</v>
+        <v>1500.405126015259</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,25 +5293,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803939</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516146</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167374</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793926</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348533</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,7 +5454,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
@@ -5463,25 +5463,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235166</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258107</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.506784258107</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.82229605222</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.405126015259</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.415575117242</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.622995973712</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="17">
@@ -5512,16 +5512,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516145</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121652</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121652</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121652</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270452</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5743,37 +5743,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6226,19 +6226,19 @@
         <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.777212765616</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>782.8410298377091</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.700204330166</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.624977674364</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V28" t="n">
-        <v>1871.624977674364</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W28" t="n">
-        <v>1582.207807637403</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X28" t="n">
-        <v>1354.218256739386</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6478,13 +6478,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6660,13 +6660,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>869.6905094135296</v>
+        <v>1089.57599612053</v>
       </c>
       <c r="C34" t="n">
-        <v>700.7543264856228</v>
+        <v>920.6398131926233</v>
       </c>
       <c r="D34" t="n">
-        <v>550.637687073287</v>
+        <v>770.5231737802875</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>622.6100801978944</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>475.720132699984</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>308.5240334148639</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>166.812202257062</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U34" t="n">
-        <v>1862.574297697925</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="V34" t="n">
-        <v>1607.889809492038</v>
+        <v>2009.423761029278</v>
       </c>
       <c r="W34" t="n">
-        <v>1318.472639455077</v>
+        <v>1720.006590992317</v>
       </c>
       <c r="X34" t="n">
-        <v>1090.48308855706</v>
+        <v>1492.0170400943</v>
       </c>
       <c r="Y34" t="n">
-        <v>869.6905094135296</v>
+        <v>1271.22446095077</v>
       </c>
     </row>
     <row r="35">
@@ -6919,37 +6919,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D37" t="n">
-        <v>513.8536007400712</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E37" t="n">
-        <v>513.8536007400712</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>366.9636532421608</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>199.7675539570408</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1814.174843522904</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1559.490355317017</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1270.073185280056</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1042.083634382039</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>821.2910552385084</v>
       </c>
     </row>
     <row r="38">
@@ -7165,7 +7165,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7323,7 +7323,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>695.5020655703109</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>545.3854261579752</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>397.4723325755821</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>363.7369613277355</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E46" t="n">
-        <v>363.7369613277355</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F46" t="n">
-        <v>363.7369613277355</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>86.11098998263029</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>191.8807364711616</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>145.1398665102882</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>84.77391660561912</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194129</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>111.7546635373313</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,22 +24651,22 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>115.0314858713394</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>32.89260457060001</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>9.000252501566294</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>172.4465594047865</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>35.40333084624568</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>58.15585306139383</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>10.32607348286601</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G46" t="n">
-        <v>38.5977558415268</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>900060.1389592531</v>
+        <v>900060.1389592532</v>
       </c>
     </row>
     <row r="6">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>900060.1389592532</v>
+        <v>900060.1389592531</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>900060.1389592532</v>
+        <v>900060.1389592531</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117844</v>
+      </c>
+      <c r="C2" t="n">
+        <v>533677.1504117844</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117843</v>
       </c>
-      <c r="C2" t="n">
-        <v>533677.1504117843</v>
-      </c>
-      <c r="D2" t="n">
-        <v>533677.1504117844</v>
-      </c>
       <c r="E2" t="n">
+        <v>524645.2897985036</v>
+      </c>
+      <c r="F2" t="n">
         <v>524645.2897985037</v>
-      </c>
-      <c r="F2" t="n">
-        <v>524645.2897985041</v>
       </c>
       <c r="G2" t="n">
         <v>524645.2897985039</v>
@@ -26334,28 +26334,28 @@
         <v>524645.289798504</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="L2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="N2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985041</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.89891818167</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818177</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26481,7 +26481,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-995185.4347953835</v>
+        <v>-995185.4347953834</v>
       </c>
       <c r="C6" t="n">
+        <v>333559.3109322096</v>
+      </c>
+      <c r="D6" t="n">
         <v>333559.3109322095</v>
       </c>
-      <c r="D6" t="n">
-        <v>333559.3109322094</v>
-      </c>
       <c r="E6" t="n">
-        <v>84766.05476605392</v>
+        <v>85078.69609497474</v>
       </c>
       <c r="F6" t="n">
-        <v>410178.5165734095</v>
+        <v>410491.1579023305</v>
       </c>
       <c r="G6" t="n">
-        <v>410178.5165734094</v>
+        <v>410491.1579023308</v>
       </c>
       <c r="H6" t="n">
-        <v>410178.5165734098</v>
+        <v>410491.1579023307</v>
       </c>
       <c r="I6" t="n">
-        <v>410178.5165734092</v>
+        <v>410491.1579023307</v>
       </c>
       <c r="J6" t="n">
-        <v>192647.314176132</v>
+        <v>192959.9555050531</v>
       </c>
       <c r="K6" t="n">
-        <v>410178.5165734094</v>
+        <v>410491.1579023308</v>
       </c>
       <c r="L6" t="n">
-        <v>410178.5165734094</v>
+        <v>410491.1579023307</v>
       </c>
       <c r="M6" t="n">
-        <v>325123.4886378977</v>
+        <v>325436.1299668186</v>
       </c>
       <c r="N6" t="n">
-        <v>410178.5165734094</v>
+        <v>410491.1579023307</v>
       </c>
       <c r="O6" t="n">
-        <v>410178.5165734093</v>
+        <v>410491.1579023307</v>
       </c>
       <c r="P6" t="n">
-        <v>410178.5165734093</v>
+        <v>410491.1579023308</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>107.5910372856495</v>
       </c>
       <c r="C2" t="n">
-        <v>19.4649600094898</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>16.35117922901935</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>75.50340795433937</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>82.39369247777739</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>307.2767095024426</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>69.12041821276459</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27827,13 +27827,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>36.53172416510566</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,10 +27864,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>206.2431374333862</v>
       </c>
       <c r="G8" t="n">
-        <v>36.27326250724076</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,10 +28067,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>234.1333118481547</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.35543628911122</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31843,25 +31843,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>139.5228722182826</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,25 +32074,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558004</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,7 +32104,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558009</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34386,13 +34386,13 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>8.181160134949316</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>256.165419911356</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113564</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38034,13 +38034,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
